--- a/biology/Zoologie/Argiope_(genre)/Argiope_(genre).xlsx
+++ b/biology/Zoologie/Argiope_(genre)/Argiope_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Argiope est un genre d'araignées aranéomorphes de la famille des Araneidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Argiope est un genre d'araignées aranéomorphes de la famille des Araneidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent sur tous les continents sauf aux pôles[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent sur tous les continents sauf aux pôles.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Leurs couleurs en général noir et jaune leur permettent d'échapper aux prédateurs (oiseaux, lézards, poules...)
 Les espèces d'Argiope (femelles au moins) portent typiquement des dessins abdominaux de couleurs dominantes noire et jaune. Le mâle est d'ordinaire beaucoup plus petit que la femelle et moins coloré.
@@ -578,11 +594,13 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sexuellement adulte avant la femelle, le mâle tisse sa toile près de celle de la partenaire qu'il a choisie. Au moment où celle-ci devient elle aussi adulte, si elle est réceptive, l'accouplement a lieu. Plus petit que la femelle, le mâle se fait dans la majorité des cas manger par la femelle, après l'accouplement, ou même parfois avant.
 La femelle peut produire jusqu'à trois sacs d'œufs, qui sont de couleur brun clair, quasiment ronds et peuvent atteindre 25 mm. Chaque sac peut contenir jusqu'à 1 400 œufs. Ces cocons sont attachés à la toile, près de l'endroit où l'araignée se tient à l'affût, afin qu'elle puisse les surveiller.[réf. nécessaire] À la naissance, au printemps, beaucoup de bébés ne survivront pas.
-Les œufs peuvent être parasités par plusieurs espèces d'insectes[2].
+Les œufs peuvent être parasités par plusieurs espèces d'insectes.
 </t>
         </is>
       </c>
@@ -611,7 +629,9 @@
           <t>Toile</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les argiopes construisent une toile verticale à l'aide d'un fil solide et collant excepté au centre de la toile (la place de l'araignée) où le fil n'est pas collant. La toile est munie d'un stabilimentum, motif blanc de soie plus ou moins en zigzag. L'araignée attend au milieu de sa toile jusqu'à ce qu'un insecte saute, tombe ou même vole dedans. Dans ce cas, à l'aide de ses pédipalpes (sens du toucher) elle repère immédiatement où est l'insecte et va l'attraper.
 </t>
@@ -642,7 +662,9 @@
           <t>Venin</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le venin des Argiopes contient une toxine, l'argiotoxine, qui pourrait être utilisée en médecine. Il n'est pas dangereux pour l'homme aux doses que l'araignée est susceptible d'injecter. Les araignées ne mordent pas l'homme, sauf pour se défendre en dernier recours. Cette morsure peut causer une douleur mais ne laisse pas de traces persistant plus de quelques heures, sauf en cas d'allergie particulière.
 </t>
@@ -673,9 +695,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 22.0, 15/03/2021)[3] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 22.0, 15/03/2021) :
 Argiope aemula (Walckenaer, 1841)
 Argiope aetherea (Walckenaer, 1841)
 Argiope aetheroides Yin, Wang, Zhang, Peng &amp; Chen, 1989
@@ -761,7 +785,7 @@
 Argiope truk Levi, 1983
 Argiope versicolor (Doleschall, 1859)
 Argiope vietnamensis Ono, 2010
-Selon World Spider Catalog (version 20.5, 2020)[4] :
+Selon World Spider Catalog (version 20.5, 2020) :
 † Argiope furva (Hong, 1985)</t>
         </is>
       </c>
@@ -790,7 +814,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Audouin, 1826 : « Explication sommaire des planches d'arachnides de l'Égypte et de la Syrie publiées par J. C. Savigny, membre de l'Institut; offrant un exposé des caractères naturels des genres avec la distinction des espèces. » Description de l'Égypte, ou Recueil des observations et des recherches qui ont été faites en Égypte pendant l'expédition de l'armée française. Histoire Naturelle, tome 1, partie 4, p. 99-186.</t>
         </is>
